--- a/Tests/ExcelTemplates/BasicExcelBiff_xlsxFormat.xlsx
+++ b/Tests/ExcelTemplates/BasicExcelBiff_xlsxFormat.xlsx
@@ -11,8 +11,22 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="NamedCell">Tabelle1!$C$4</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>NameCell</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,15 +363,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D7:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
